--- a/docs/source/MIP/tutorials/dataset/Transport_P_W.xlsx
+++ b/docs/source/MIP/tutorials/dataset/Transport_P_W.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/668a109b606e2344/EDEM/Operations Research/202021/Units/Unit 3 - MIP and Network Theory/Lecture 3 Transportation Problems/Exercises/DSP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ffraile\PycharmProjects\operations-research-notebooks\docs\source\MIP\tutorials\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_A52A79AB48753AB7F1AB31A10EEC93254FB44934" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{48606E14-7426-45F0-B5AE-48DB2B534301}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E7CC1A-6F53-4F32-9552-317E560D1B70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="22155" windowHeight="11955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transport_P_W" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Transport_P_W">Transport_P_W!$A$1:$E$25</definedName>
+    <definedName name="Transport_P_W">Transport_P_W!$A$1:$D$25</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>IdPlant</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>CostPW</t>
-  </si>
-  <si>
-    <t>S</t>
   </si>
 </sst>
 </file>
@@ -413,19 +410,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.53515625" customWidth="1"/>
-    <col min="3" max="3" width="13.07421875" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -438,11 +435,8 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -455,11 +449,8 @@
       <c r="D2">
         <v>6</v>
       </c>
-      <c r="E2">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -472,11 +463,8 @@
       <c r="D3">
         <v>4</v>
       </c>
-      <c r="E3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -489,11 +477,8 @@
       <c r="D4">
         <v>3</v>
       </c>
-      <c r="E4">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -506,11 +491,8 @@
       <c r="D5">
         <v>4</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -523,11 +505,8 @@
       <c r="D6">
         <v>7</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -540,11 +519,8 @@
       <c r="D7">
         <v>6</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -557,11 +533,8 @@
       <c r="D8">
         <v>4</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -574,11 +547,8 @@
       <c r="D9">
         <v>8</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -591,11 +561,8 @@
       <c r="D10">
         <v>4</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -608,11 +575,8 @@
       <c r="D11">
         <v>3</v>
       </c>
-      <c r="E11">
-        <v>1901</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -625,11 +589,8 @@
       <c r="D12">
         <v>6</v>
       </c>
-      <c r="E12">
-        <v>2662</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -642,11 +603,8 @@
       <c r="D13">
         <v>4</v>
       </c>
-      <c r="E13">
-        <v>1949</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -659,11 +617,8 @@
       <c r="D14">
         <v>6</v>
       </c>
-      <c r="E14">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -676,11 +631,8 @@
       <c r="D15">
         <v>3</v>
       </c>
-      <c r="E15">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -693,11 +645,8 @@
       <c r="D16">
         <v>3</v>
       </c>
-      <c r="E16">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -710,11 +659,8 @@
       <c r="D17">
         <v>7</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -727,11 +673,8 @@
       <c r="D18">
         <v>6</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -744,11 +687,8 @@
       <c r="D19">
         <v>3</v>
       </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -761,11 +701,8 @@
       <c r="D20">
         <v>4</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -778,11 +715,8 @@
       <c r="D21">
         <v>5</v>
       </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -795,11 +729,8 @@
       <c r="D22">
         <v>4</v>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -812,11 +743,8 @@
       <c r="D23">
         <v>4</v>
       </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
@@ -829,11 +757,8 @@
       <c r="D24">
         <v>7</v>
       </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -845,9 +770,6 @@
       </c>
       <c r="D25">
         <v>4</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
